--- a/biology/Zoologie/Frank_Nelson_Blanchard/Frank_Nelson_Blanchard.xlsx
+++ b/biology/Zoologie/Frank_Nelson_Blanchard/Frank_Nelson_Blanchard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Frank Nelson Blanchard, né le 19 décembre 1888 à Stoneham (Massachusetts) et mort le 21 septembre 1937, est un herpétologiste américain.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il obtient son Bachelor of Science en biologie à l’université Tufts en 1913 et son doctorat en zoologie à l’université du Michigan. Il étudie auprès d’Helen Gaige (1890-1976) et conduit sa thèse sous la direction d’Alexander Grant Ruthven (1882-1971)[1]. Sa thèse est une étude sur genre Lampropeltis. Sa première publication date de 1914 : il y décrit deux nouvelles espèces d’algue.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il obtient son Bachelor of Science en biologie à l’université Tufts en 1913 et son doctorat en zoologie à l’université du Michigan. Il étudie auprès d’Helen Gaige (1890-1976) et conduit sa thèse sous la direction d’Alexander Grant Ruthven (1882-1971). Sa thèse est une étude sur genre Lampropeltis. Sa première publication date de 1914 : il y décrit deux nouvelles espèces d’algue.
 De 1913 à 1916, il enseigne la zoologie au Massachusetts State College à Amherst. En 1918, il devient assistant dans la division des reptiles de la Smithsonian Institution où il travaille sous la direction de Leonhard Hess Stejneger (1851-1943). Il quitte cette fonction en 1920 pour devenir professeur de zoologie à l’université du Michigan. En 1922, il fait paraître Amphibians and Reptiles of Western Tennessee. En 1927, il prend un congé sabbatique pour voyager en Nouvelle-Zélande, en Australie, en Tasmanie. En 1935, il voyage dans le Sud-Ouest des États-Unis et entame l’écriture d’un manuel sur les serpents des États-Unis qui sera achevé après sa mort par Gloyd. En 1936, il devient le vice-président de la Société américaine des ichtyologistes et des herpétologistes.
 Blanchard exerce une grande influence sur ses étudiants comme Howard Kay Gloyd (1902-1978), William Marion Clay (1906-1983) ou William Henson Stickel (1912-).
 </t>
@@ -544,7 +558,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « Frank N. Blanchard » (voir la liste des auteurs) (version du 23 octobre 2006).
 Kraig Adler, Contributions to the history of herpetology, Society for the study of amphibians and reptiles, 1989, 202 p.  (ISBN 0-916984-19-2)</t>
